--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00413A-6CD6-471F-931D-E725837C7460}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC7A3E-C660-41FB-A083-323D3714F31C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>Jinender</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+  <si>
+    <t>Stealing Home</t>
+  </si>
+  <si>
+    <t>American Graffiti</t>
+  </si>
+  <si>
+    <t>Fried Green Tomatoes</t>
+  </si>
+  <si>
+    <t>Breaking Away</t>
+  </si>
+  <si>
+    <t>Field of Dreams</t>
+  </si>
+  <si>
+    <t>Boyz N the Hood</t>
+  </si>
+  <si>
+    <t>Raising Arizona</t>
+  </si>
+  <si>
+    <t>St. Elmo’s Fire</t>
+  </si>
+  <si>
+    <t>Three Men and a Baby</t>
+  </si>
+  <si>
+    <t>Singles</t>
+  </si>
+  <si>
+    <t>Stand by Me</t>
+  </si>
+  <si>
+    <t>He Said, She Said</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>When Harry Met Sally</t>
+  </si>
+  <si>
+    <t>Radio Flyer</t>
+  </si>
+  <si>
+    <t>Little Big Man</t>
+  </si>
+  <si>
+    <t>Heathers</t>
+  </si>
+  <si>
+    <t>Grumpy Old Men</t>
+  </si>
+  <si>
+    <t>Pretty in Pink</t>
+  </si>
+  <si>
+    <t>Parenthood</t>
+  </si>
+  <si>
+    <t>Sixteen Candles</t>
+  </si>
+  <si>
+    <t>Shadowlands</t>
+  </si>
+  <si>
+    <t>Father of the Bride</t>
+  </si>
+  <si>
+    <t>Flatliners</t>
+  </si>
+  <si>
+    <t>The Graduate</t>
+  </si>
+  <si>
+    <t>The Power of One</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>The World According to Garp</t>
+  </si>
+  <si>
+    <t>My Girl</t>
+  </si>
+  <si>
+    <t>Circle of Friends</t>
+  </si>
+  <si>
+    <t>Muriel’s Wedding</t>
+  </si>
+  <si>
+    <t>Nell</t>
+  </si>
+  <si>
+    <t>A River Runs Through It</t>
+  </si>
+  <si>
+    <t>Life with Father</t>
+  </si>
+  <si>
+    <t>Cocoon</t>
+  </si>
+  <si>
+    <t>Grand Canyon</t>
+  </si>
+  <si>
+    <t>What’s Eating Gilbert Grape</t>
+  </si>
+  <si>
+    <t>Risky Business</t>
+  </si>
+  <si>
+    <t>The Outsiders</t>
+  </si>
+  <si>
+    <t>4 Weddings &amp; a Funeral</t>
+  </si>
+  <si>
+    <t>Wild Strawberries (subtitled)</t>
+  </si>
+  <si>
+    <t>Ran (subtitled)</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso (subtitled)</t>
+  </si>
+  <si>
+    <t>Widow’s Peak</t>
+  </si>
+  <si>
+    <t>Nine Months</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>Indian in the Cupboard</t>
+  </si>
+  <si>
+    <t>Dolores Claiborne</t>
+  </si>
+  <si>
+    <t>Grumpier Old Men</t>
+  </si>
+  <si>
+    <t>As Good As It Gets</t>
+  </si>
+  <si>
+    <t>10 Things I Hate About You</t>
+  </si>
+  <si>
+    <t>Never Been Kissed</t>
+  </si>
+  <si>
+    <t>Big Daddy</t>
+  </si>
+  <si>
+    <t>The Wedding Singer</t>
+  </si>
+  <si>
+    <t>Sling Blade</t>
+  </si>
+  <si>
+    <t>The Notebook</t>
+  </si>
+  <si>
+    <t>Bridget Jones's Diary</t>
+  </si>
+  <si>
+    <t>Secondhand Lions</t>
+  </si>
+  <si>
+    <t>Sweet Home Alabama</t>
+  </si>
+  <si>
+    <t>About a Boy</t>
+  </si>
+  <si>
+    <t>Mean Girls</t>
+  </si>
+  <si>
+    <t>A Beautiful Life</t>
+  </si>
+  <si>
+    <t>Something’s Gotta Give</t>
+  </si>
+  <si>
+    <t>The Bucket List</t>
+  </si>
+  <si>
+    <t>Alexander and the Terrible, Horrible, No Good, Very Bad Day</t>
+  </si>
+  <si>
+    <t>The Million Dollar Arm</t>
+  </si>
+  <si>
+    <t>Mom’s Night Out</t>
+  </si>
+  <si>
+    <t>Saving Mr. Banks</t>
+  </si>
+  <si>
+    <t>Parental Guidance</t>
+  </si>
+  <si>
+    <t>Diary of A Wimpy Kid: Dog Days</t>
+  </si>
+  <si>
+    <t>Crazy, Stupid, Love</t>
+  </si>
+  <si>
+    <t>Judy Moody and The Not Bummer Summer</t>
+  </si>
+  <si>
+    <t>Diary of A Wimpy Kid: Roderick Rules</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Real Genius</t>
+  </si>
+  <si>
+    <t>True Grit</t>
   </si>
 </sst>
 </file>
@@ -346,27 +568,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
